--- a/Templates/VEC_Template.xlsx
+++ b/Templates/VEC_Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503C1DC4-9186-45E6-BEE6-EFA28837EF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A209A07-4747-495F-BEBE-C50445C6936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -400,18 +400,18 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -436,15 +436,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -463,11 +463,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -479,8 +479,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,9 +496,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -536,7 +536,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -642,7 +642,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -818,27 +818,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="5.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
     </row>
-    <row r="2" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="8.35" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -879,7 +879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="40.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
@@ -923,7 +923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -931,7 +931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -949,7 +949,7 @@
       </c>
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -975,8 +975,8 @@
       <c r="C15" s="30"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:27" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="8.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:27" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="14.95" x14ac:dyDescent="0.25">
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
@@ -1064,7 +1064,7 @@
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
     </row>
-    <row r="21" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -1092,7 +1092,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -1100,22 +1100,22 @@
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="14.95" x14ac:dyDescent="0.25">
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="14.95" x14ac:dyDescent="0.25">
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="14.95" x14ac:dyDescent="0.25">
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="42" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="4" customFormat="1" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1142,7 +1142,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="4" customFormat="1" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1157,7 +1157,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" s="4" customFormat="1" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1186,7 +1186,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="48" spans="1:25" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" s="5" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1213,7 +1213,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" s="6" customFormat="1" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
